--- a/upcoming_events_bets.xlsx
+++ b/upcoming_events_bets.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\OneDrive\Desktop\VSCode Projects\sports-betting-arbitrage-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC794B1-A33C-4A9A-B2BB-A10A90973607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E972FCC3-A86A-4F07-A4B0-AB1BB4BA2882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Upcoming" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -55,77 +68,83 @@
     <t>Amount to Buy #2</t>
   </si>
   <si>
-    <t>664bf20718641be1168cb496f3dfbc51</t>
-  </si>
-  <si>
-    <t>baseball_mlb</t>
-  </si>
-  <si>
-    <t>Bovada</t>
-  </si>
-  <si>
-    <t>Chicago Cubs</t>
-  </si>
-  <si>
-    <t>WynnBET</t>
-  </si>
-  <si>
-    <t>New York Mets</t>
-  </si>
-  <si>
-    <t>638dfadae7d2dc4301d74f07b5f01143</t>
-  </si>
-  <si>
-    <t>Caesars</t>
-  </si>
-  <si>
-    <t>Texas Rangers</t>
+    <t>d0a2bbf7c26026c4008203a62b2cb077</t>
+  </si>
+  <si>
+    <t>basketball_nba</t>
   </si>
   <si>
     <t>MyBookie.ag</t>
   </si>
   <si>
-    <t>Washington Nationals</t>
-  </si>
-  <si>
-    <t>772a63e0953b9a4ff5e91d3e62f5c72b</t>
-  </si>
-  <si>
-    <t>Unibet</t>
-  </si>
-  <si>
-    <t>Cleveland Guardians</t>
-  </si>
-  <si>
-    <t>Houston Astros</t>
-  </si>
-  <si>
-    <t>4761634dee87336e2bbad6d55f9c1dc7</t>
-  </si>
-  <si>
-    <t>BetOnline.ag</t>
-  </si>
-  <si>
-    <t>Arizona Diamondbacks</t>
-  </si>
-  <si>
-    <t>PointsBet (US)</t>
-  </si>
-  <si>
-    <t>Los Angeles Dodgers</t>
-  </si>
-  <si>
-    <t>140-80</t>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>DraftKings</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers</t>
+  </si>
+  <si>
+    <t>9d1d55cf36653e4d09b3fe42906e496e</t>
+  </si>
+  <si>
+    <t>icehockey_nhl</t>
+  </si>
+  <si>
+    <t>Edmonton Oilers</t>
+  </si>
+  <si>
+    <t>Los Angeles Kings</t>
+  </si>
+  <si>
+    <t>x+y=100</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>y=(p1+p2)/2</t>
+  </si>
+  <si>
+    <t>y=(124/100*x + 180/100*(100 - x))/2</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y=100-x</t>
+  </si>
+  <si>
+    <t>100-x</t>
+  </si>
+  <si>
+    <t>p1=(124/100*x)-y</t>
+  </si>
+  <si>
+    <t>p2=(180/100*y)-x</t>
+  </si>
+  <si>
+    <t>p=(p1+p2)/2</t>
+  </si>
+  <si>
+    <t>p=(((124/100*x)-(100-x))+((180/100*y)-x))/2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000_);\(&quot;$&quot;#,##0.000\)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.0000_);\(&quot;$&quot;#,##0.0000\)"/>
+    <numFmt numFmtId="174" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +154,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -209,10 +235,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,30 +283,19 @@
     <xf numFmtId="7" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -292,6 +308,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>549520</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>145236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133800CF-874A-BD36-3996-D51E1A698D69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="6949440"/>
+          <a:ext cx="10150720" cy="5265876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,7 +655,7 @@
     <col min="1" max="25" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -633,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="10">
-        <v>54.19</v>
+        <v>15.3</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>13</v>
@@ -642,10 +707,10 @@
         <v>14</v>
       </c>
       <c r="F2" s="11">
-        <v>-109.89</v>
+        <v>-454.55</v>
       </c>
       <c r="G2" s="12">
-        <v>80.73</v>
+        <v>94.51</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>15</v>
@@ -654,263 +719,203 @@
         <v>16</v>
       </c>
       <c r="J2" s="13">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="K2" s="14">
-        <v>19.27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" s="10">
-        <v>8.51</v>
+        <v>24.44</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="11">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="G3" s="12">
-        <v>36.17</v>
+        <v>55.56</v>
       </c>
       <c r="H3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13">
+        <v>180</v>
+      </c>
+      <c r="K3" s="14">
+        <v>44.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G5" s="17">
+        <f>G3/100</f>
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="K5" s="17">
+        <f>K3/100</f>
+        <v>0.44439999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G6" s="16">
+        <f>G5*F3</f>
+        <v>68.894400000000005</v>
+      </c>
+      <c r="K6" s="16">
+        <f>K5*J3</f>
+        <v>79.99199999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G8" s="16">
+        <f>G6+G3</f>
+        <v>124.45440000000001</v>
+      </c>
+      <c r="K8" s="16">
+        <f>K6+K3</f>
+        <v>124.43199999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>13.89</v>
+      </c>
+      <c r="K15">
+        <v>86.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F16" s="11">
+        <v>124</v>
+      </c>
+      <c r="G16" s="18">
+        <v>44.643000000000001</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="13">
+        <v>180</v>
+      </c>
+      <c r="K16" s="19">
+        <v>55.356999999999999</v>
+      </c>
+      <c r="L16" s="15">
+        <f>G16+K16</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="G18" s="17"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="16">
+        <f>G16/100*F16</f>
+        <v>55.357320000000001</v>
+      </c>
+      <c r="I19" s="16">
+        <f>(G19+K19) / 2</f>
+        <v>77.499960000000002</v>
+      </c>
+      <c r="K19" s="16">
+        <f>K16/100*J16</f>
+        <v>99.642600000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="G21" s="16"/>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="16">
+        <f>G19-K16</f>
+        <v>3.2000000000209639E-4</v>
+      </c>
+      <c r="I23" s="16">
+        <f>(G23+K23) / 2</f>
+        <v>27.499960000000002</v>
+      </c>
+      <c r="K23" s="16">
+        <f>K19-G16</f>
+        <v>54.999600000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="13">
-        <v>-142.86000000000001</v>
-      </c>
-      <c r="K3" s="14">
-        <v>63.83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10">
-        <v>25.61</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="11" t="s">
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="11">
-        <v>143</v>
-      </c>
-      <c r="G4" s="12">
-        <v>51.69</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="13" t="s">
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="13">
-        <v>160</v>
-      </c>
-      <c r="K4" s="14">
-        <v>48.31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10">
-        <v>6.32</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="11">
-        <v>127</v>
-      </c>
-      <c r="G5" s="12">
-        <v>46.84</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="13">
-        <v>100</v>
-      </c>
-      <c r="K5" s="14">
-        <v>53.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="17">
-        <v>54.19</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="18">
-        <v>-109.89</v>
-      </c>
-      <c r="G6" s="19">
-        <v>80.73</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="20">
-        <v>700</v>
-      </c>
-      <c r="K6" s="21">
-        <v>19.27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="17">
-        <v>8.51</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="18">
-        <v>200</v>
-      </c>
-      <c r="G7" s="19">
-        <v>36.17</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="20">
-        <v>-142.86000000000001</v>
-      </c>
-      <c r="K7" s="21">
-        <v>63.83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="17">
-        <v>25.61</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="18">
-        <v>143</v>
-      </c>
-      <c r="G8" s="19">
-        <v>51.69</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="20">
-        <v>160</v>
-      </c>
-      <c r="K8" s="21">
-        <v>48.31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="17">
-        <v>6.32</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="18">
-        <v>127</v>
-      </c>
-      <c r="G9" s="19">
-        <v>46.84</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="20">
-        <v>100</v>
-      </c>
-      <c r="K9" s="21">
-        <v>53.16</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H18" t="s">
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>